--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2118454.844203516</v>
+        <v>-2121314.676438785</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>38.17317209906604</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>126.9993650770285</v>
+        <v>116.8405921356975</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>109.4092934399339</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>43.82583598832325</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.6612299361392</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489923</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>36.34755429740199</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476426</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724349</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>129.3221315251157</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>33.3673374959581</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.90797577984769</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.65413415037908</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461298</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>106.5915945578628</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.21429859416413</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>182.4031684223871</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>237.9934316509956</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>97.17069882542481</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>19.17644954995924</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5469377044857</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8784673763421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.10799870228526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>47.84205650382022</v>
+        <v>19.17715139986212</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291524</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>6.228861054224446</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4352,25 +4352,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>711.5435889692532</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>711.5435889692532</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="U2" t="n">
-        <v>522.1238039527684</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V2" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W2" t="n">
         <v>204.4218319897903</v>
       </c>
       <c r="X2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y2" t="n">
         <v>15.00204697330559</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.9942574319834</v>
+        <v>398.2080327882446</v>
       </c>
       <c r="C3" t="n">
-        <v>152.5412281508565</v>
+        <v>398.2080327882446</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>249.2736231269933</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>566.4233698083126</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>566.4233698083126</v>
       </c>
       <c r="W3" t="n">
-        <v>516.4140424484682</v>
+        <v>566.4233698083126</v>
       </c>
       <c r="X3" t="n">
-        <v>326.9942574319834</v>
+        <v>566.4233698083126</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.9942574319834</v>
+        <v>566.4233698083126</v>
       </c>
     </row>
     <row r="4">
@@ -4522,13 +4522,13 @@
         <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
         <v>15.00204697330559</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.3362933480595</v>
+        <v>86.82112398480291</v>
       </c>
       <c r="C5" t="n">
-        <v>536.3362933480595</v>
+        <v>86.82112398480291</v>
       </c>
       <c r="D5" t="n">
-        <v>536.3362933480595</v>
+        <v>86.82112398480291</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5480407498152</v>
+        <v>86.82112398480291</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6025400006118</v>
+        <v>79.87562323559943</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704105</v>
+        <v>67.3275997053982</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704105</v>
+        <v>30.61289839489114</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489106</v>
+        <v>30.61289839489114</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121467</v>
+        <v>93.38580827121496</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235835</v>
+        <v>238.2046462235839</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190618</v>
+        <v>454.7669823190636</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643055</v>
+        <v>727.4037457643076</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453887</v>
+        <v>1009.06586545389</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831928</v>
+        <v>1261.696156831931</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855772</v>
+        <v>1442.809264855775</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744553</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.63225547461</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="S5" t="n">
-        <v>1350.796251643679</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.796251643679</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.796251643679</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="V5" t="n">
-        <v>1019.733364300109</v>
+        <v>1199.582032400986</v>
       </c>
       <c r="W5" t="n">
-        <v>666.9647090299945</v>
+        <v>846.8133771308719</v>
       </c>
       <c r="X5" t="n">
-        <v>536.3362933480595</v>
+        <v>473.347618869792</v>
       </c>
       <c r="Y5" t="n">
-        <v>536.3362933480595</v>
+        <v>473.347618869792</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519.0237023437614</v>
+        <v>584.9330907348444</v>
       </c>
       <c r="C6" t="n">
-        <v>519.0237023437614</v>
+        <v>584.9330907348444</v>
       </c>
       <c r="D6" t="n">
-        <v>370.0892926825102</v>
+        <v>584.9330907348444</v>
       </c>
       <c r="E6" t="n">
-        <v>210.8518376770547</v>
+        <v>425.6956357293889</v>
       </c>
       <c r="F6" t="n">
-        <v>64.31727970393965</v>
+        <v>279.1610777562739</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61289839489106</v>
+        <v>141.9868581631764</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489106</v>
+        <v>43.65125776847466</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489106</v>
+        <v>30.61289839489114</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275262</v>
+        <v>49.18216652275284</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477041</v>
+        <v>159.0748281477046</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543705</v>
+        <v>353.1616144543713</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642218</v>
+        <v>599.0086077642229</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621722</v>
+        <v>865.7710843621738</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970543</v>
+        <v>1087.586838970545</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422846</v>
+        <v>1246.280471422848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680483</v>
+        <v>1302.443765680486</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680483</v>
+        <v>1302.443765680486</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.93969159543</v>
+        <v>1302.443765680486</v>
       </c>
       <c r="T6" t="n">
-        <v>962.027310781037</v>
+        <v>1302.443765680486</v>
       </c>
       <c r="U6" t="n">
-        <v>962.027310781037</v>
+        <v>1074.322555694789</v>
       </c>
       <c r="V6" t="n">
-        <v>726.8752025492943</v>
+        <v>839.170447463046</v>
       </c>
       <c r="W6" t="n">
-        <v>726.8752025492943</v>
+        <v>584.9330907348444</v>
       </c>
       <c r="X6" t="n">
-        <v>519.0237023437614</v>
+        <v>584.9330907348444</v>
       </c>
       <c r="Y6" t="n">
-        <v>519.0237023437614</v>
+        <v>584.9330907348444</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489106</v>
+        <v>235.5633582423729</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489106</v>
+        <v>66.62717531446597</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489106</v>
+        <v>30.61289839489114</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713214</v>
+        <v>51.49054881713236</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363477</v>
+        <v>108.1125511363481</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055974</v>
+        <v>171.0707966055979</v>
       </c>
       <c r="N7" t="n">
-        <v>240.389561622134</v>
+        <v>240.3895616221348</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645229</v>
+        <v>284.1035717645238</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354669</v>
+        <v>302.446488135468</v>
       </c>
       <c r="Q7" t="n">
-        <v>258.6875927065649</v>
+        <v>302.446488135468</v>
       </c>
       <c r="R7" t="n">
-        <v>138.2811757260656</v>
+        <v>302.446488135468</v>
       </c>
       <c r="S7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="T7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="U7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="V7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="W7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489106</v>
+        <v>302.446488135468</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489106</v>
+        <v>235.5633582423729</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.399693788884</v>
+        <v>1781.859986840533</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>1412.897469900122</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>1054.631771293371</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>1054.631771293371</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>643.6458665037637</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>227.614821207171</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U8" t="n">
-        <v>1928.062421196576</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V8" t="n">
-        <v>1596.999533853006</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.999533853006</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.999533853006</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.999533853006</v>
+        <v>2168.459826904655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>464.908856516254</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>290.455827235127</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>141.5214175738757</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>633.1241935363221</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="D10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="E10" t="n">
-        <v>349.5533329690589</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6633854711486</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6633854711486</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>986.1256051221288</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>817.1894221942219</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>667.0727827818862</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>519.1596891994931</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>372.2697417015827</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138429</v>
+        <v>1388.566649095899</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703128</v>
+        <v>1167.774069952369</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F16" t="n">
-        <v>365.9405071576786</v>
+        <v>336.9860575577209</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,19 +6303,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942654</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,13 +7667,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>204.1247966913347</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>200.7528933931064</v>
+        <v>210.9116663344374</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.204026273936473e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>63.36835372228573</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.4161395899836</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6820817884486</v>
+        <v>146.3469868924067</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>119.8635921600917</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1347040.488613818</v>
+        <v>1347040.488613819</v>
       </c>
     </row>
     <row r="6">
@@ -26314,37 +26314,37 @@
         <v>67700.85635772865</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.1769864283</v>
-      </c>
       <c r="E2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="K2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642834</v>
@@ -26353,7 +26353,7 @@
         <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996501</v>
+        <v>216004.046899651</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960621</v>
+        <v>167084.511296062</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838263</v>
+        <v>50221.67010838285</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064597</v>
+        <v>59784.02116064588</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468118</v>
+        <v>221112.0537468116</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888978</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="L4" t="n">
         <v>24037.44323498546</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498548</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498546</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790102</v>
+        <v>72511.9759879011</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776968.9994717226</v>
+        <v>-777329.08248744</v>
       </c>
       <c r="C6" t="n">
-        <v>-427523.8996479346</v>
+        <v>-427523.8996479353</v>
       </c>
       <c r="D6" t="n">
-        <v>-344382.4062544038</v>
+        <v>-344382.4062544035</v>
       </c>
       <c r="E6" t="n">
-        <v>-637897.6614010639</v>
+        <v>-637932.3993264992</v>
       </c>
       <c r="F6" t="n">
-        <v>-36454.45382679845</v>
+        <v>-36489.19175223417</v>
       </c>
       <c r="G6" t="n">
-        <v>-36454.4538267985</v>
+        <v>-36489.19175223414</v>
       </c>
       <c r="H6" t="n">
-        <v>-36454.4538267985</v>
+        <v>-36489.19175223415</v>
       </c>
       <c r="I6" t="n">
-        <v>-36454.45382679852</v>
+        <v>-36489.19175223423</v>
       </c>
       <c r="J6" t="n">
-        <v>-85519.39855534311</v>
+        <v>-85554.13648077879</v>
       </c>
       <c r="K6" t="n">
-        <v>-86676.12393518115</v>
+        <v>-86710.86186061703</v>
       </c>
       <c r="L6" t="n">
-        <v>-104881.4032631185</v>
+        <v>-104881.4032631184</v>
       </c>
       <c r="M6" t="n">
         <v>-202243.7626540705</v>
@@ -26558,10 +26558,10 @@
         <v>-45097.38210247253</v>
       </c>
       <c r="O6" t="n">
-        <v>-45097.3821024725</v>
+        <v>-45097.38210247251</v>
       </c>
       <c r="P6" t="n">
-        <v>-45097.38210247245</v>
+        <v>-45097.38210247253</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836614</v>
+        <v>716.4483122836621</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361383</v>
+        <v>382.6612299361392</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707568</v>
+        <v>167.9783713707575</v>
       </c>
       <c r="D3" t="n">
         <v>137.2623522540227</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698184</v>
+        <v>195.1356427698193</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900249</v>
+        <v>159.4537267900246</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698184</v>
+        <v>195.1356427698193</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900249</v>
+        <v>159.4537267900246</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698184</v>
+        <v>195.1356427698193</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900249</v>
+        <v>159.4537267900246</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.7512490503768</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>120.6026410909871</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27512,16 +27512,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>116.454474970157</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.8691471725963</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27594,7 +27594,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976603</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0.07261172734138199</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>273.630458760375</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.6625376272433</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>240.4089691533533</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4351399012084</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295525</v>
+        <v>33.55667543310751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238363</v>
+        <v>49.99985954238353</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037916</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.32130647461287</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
-        <v>94.90973438652294</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>152.3703547579307</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>121.9236363337959</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>13.07766104312026</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>60.47438162997614</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27986,7 +27986,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>126.244598472972</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.992873656759514</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30283,13 +30283,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235822</v>
+        <v>2.880194220235825</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799012</v>
+        <v>29.49678905799015</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756418</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997404</v>
+        <v>244.4528841997406</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423228</v>
+        <v>366.3715055423231</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098649</v>
+        <v>454.5162494098654</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739838</v>
+        <v>505.7369033739842</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022288</v>
+        <v>513.9202552022293</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247588</v>
+        <v>485.2803239247593</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126869</v>
+        <v>414.1755291126873</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004914</v>
+        <v>311.0285736004917</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868886</v>
+        <v>180.9230001868888</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362387</v>
+        <v>65.63242579362394</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908232</v>
+        <v>12.60805019908233</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188657</v>
+        <v>0.230415537618866</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044102</v>
+        <v>1.541039766044103</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574172</v>
+        <v>14.88319984574174</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704474</v>
+        <v>53.05772878704479</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594562</v>
+        <v>145.5944631594563</v>
       </c>
       <c r="K6" t="n">
-        <v>248.844127484411</v>
+        <v>248.8441274844112</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754968</v>
+        <v>334.6016386754971</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945954</v>
+        <v>390.4643301945958</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519702</v>
+        <v>400.7987591519706</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306772</v>
+        <v>366.6525622306775</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510005</v>
+        <v>294.2710058510008</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462612</v>
+        <v>196.7123743462614</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158032</v>
+        <v>95.67964442158042</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963494</v>
+        <v>28.62413775963497</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572496</v>
+        <v>6.211471688572502</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344804</v>
+        <v>0.1013841951344805</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970537</v>
+        <v>1.291955972970538</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513805</v>
+        <v>11.48666310513806</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351397</v>
+        <v>38.85263962351401</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901695</v>
+        <v>91.34128728901703</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505769</v>
+        <v>150.101793950577</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178197</v>
+        <v>192.0786180178198</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902815</v>
+        <v>202.5199712902817</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273914</v>
+        <v>197.7044990273916</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522356</v>
+        <v>182.6121042522358</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036365</v>
+        <v>156.2562024036366</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.183695154833</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647521</v>
+        <v>58.09103856647527</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258653</v>
+        <v>22.51526909258655</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52017552087411</v>
+        <v>5.520175520874115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839299</v>
+        <v>0.07047032579839306</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099979</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>301.1823051500296</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,22 +34445,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305408</v>
+        <v>63.40697967305431</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973422</v>
+        <v>146.2816544973426</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398777</v>
+        <v>218.7498344398782</v>
       </c>
       <c r="M5" t="n">
-        <v>275.390670146711</v>
+        <v>275.3906701467115</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056378</v>
+        <v>284.5071916056384</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030721</v>
+        <v>255.1821125030725</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574173</v>
+        <v>182.9425333574177</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604189</v>
+        <v>88.72288372604223</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278946</v>
+        <v>18.7568364927896</v>
       </c>
       <c r="K6" t="n">
-        <v>111.002688510052</v>
+        <v>111.0026885100522</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956226</v>
+        <v>196.0472588956229</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725771</v>
+        <v>248.3302962725775</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686368</v>
+        <v>269.4570470686373</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862327</v>
+        <v>224.0563177862331</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366703</v>
+        <v>160.2965984366705</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023964</v>
+        <v>56.73060026023984</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.0885357800415</v>
+        <v>21.08853578004164</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658137</v>
+        <v>57.19394173658156</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267643</v>
+        <v>63.59418734267661</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215826</v>
+        <v>70.01895456215846</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039279</v>
+        <v>44.15556580039296</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448889</v>
+        <v>18.52819835448904</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655534</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>159.0482712280113</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
